--- a/projects/AutomaticPython/13/example.xlsx
+++ b/projects/AutomaticPython/13/example.xlsx
@@ -1,63 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="96" windowWidth="9540" windowHeight="4512"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="288" yWindow="96" windowWidth="9540" windowHeight="4512" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
-  <si>
-    <t>Apples</t>
-  </si>
-  <si>
-    <t>Cherries</t>
-  </si>
-  <si>
-    <t>Pears</t>
-  </si>
-  <si>
-    <t>Oranges</t>
-  </si>
-  <si>
-    <t>Bananas</t>
-  </si>
-  <si>
-    <t>Strawberries</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,28 +55,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -386,120 +367,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col width="20.109375" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>42099.565300925926</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
+    <row r="1">
+      <c r="A1" s="1" t="n">
+        <v>42099.56530092594</v>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="n">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>42099.153738425928</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="D1" s="6" t="n">
+        <v>42102.37480324074</v>
+      </c>
+      <c r="E1" s="6" t="n">
+        <v>42104.08819444444</v>
+      </c>
+      <c r="F1" s="6" t="n">
+        <v>42104.75737268518</v>
+      </c>
+      <c r="G1" s="6" t="n">
+        <v>42104.11164351852</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>42099.15373842593</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Cherries</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>42100.532534722224</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Oranges</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Bananas</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Strawberries</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>42100.53253472222</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Pears</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>42102.374803240738</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="D3" t="n">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>42104.088194444441</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="E3" t="n">
         <v>152</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>42104.757372685184</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="F3" t="n">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>42104.111643518518</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="G3" t="n">
         <v>98</v>
       </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>42102.37480324074</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Oranges</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>42104.08819444444</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>42104.75737268518</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Bananas</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>42104.11164351852</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Strawberries</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr"/>
+      <c r="B15" s="6" t="inlineStr"/>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="inlineStr"/>
+      <c r="E15" s="6" t="inlineStr"/>
+      <c r="F15" s="6" t="inlineStr"/>
+      <c r="G15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
